--- a/mainProcedure.xlsx
+++ b/mainProcedure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ltuse-my.sharepoint.com/personal/lukjun-9_student_ltu_se/Documents/RavenProcedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="13_ncr:40009_{C15FA883-DD95-4418-AC6A-1417BAD74176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8518151F-1A18-4290-8C1F-9E54EB208A12}"/>
+  <xr:revisionPtr revIDLastSave="703" documentId="13_ncr:40009_{C15FA883-DD95-4418-AC6A-1417BAD74176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B36CBCA-1BAB-4D59-9C7F-5F0D4D60361C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainProcedure" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Roles" sheetId="3" r:id="rId3"/>
     <sheet name="ElectronicProcedures" sheetId="4" r:id="rId4"/>
     <sheet name="EngineProcedures" sheetId="5" r:id="rId5"/>
+    <sheet name="AbortProcedures" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="256">
   <si>
     <t>Version</t>
   </si>
@@ -191,15 +192,9 @@
     <t>Equates to valve mosfet 2. </t>
   </si>
   <si>
-    <t>Both with relay activated and deactivated. </t>
-  </si>
-  <si>
     <t>Verify the full firing sequence works and timing is correct. </t>
   </si>
   <si>
-    <t>Order: Igniter relay, valve, igniter relay, valve. </t>
-  </si>
-  <si>
     <t>Not applicable in version V1 - Verify valves can be controlled by the software. </t>
   </si>
   <si>
@@ -215,16 +210,10 @@
     <t>Run the servos through a sweep sequence. </t>
   </si>
   <si>
-    <t>Confirm with GSE the software is reset. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Phase </t>
   </si>
   <si>
     <t xml:space="preserve">2.Verify Software is switched off from TEST mode. </t>
-  </si>
-  <si>
-    <t>Confirmed with GSE</t>
   </si>
   <si>
     <t>3. Coordinate with GSE (Control Box Operator)</t>
@@ -554,18 +543,6 @@
     <t>Press Arduino reset button while testpin is grounded</t>
   </si>
   <si>
-    <t>Verify the buzzer can be controlled by the software.   By grounding the testpin 1</t>
-  </si>
-  <si>
-    <t>Verify the oxidizer valve can be controlled by the software. By grounding the test pin 3</t>
-  </si>
-  <si>
-    <t>Verify the secondary ignition relay can be activated by the software. By grounding test pin 4</t>
-  </si>
-  <si>
-    <t>Measure continuity between IGNISENSE and IGNITION with multimeter (Audibly)</t>
-  </si>
-  <si>
     <t>2 steps</t>
   </si>
   <si>
@@ -596,9 +573,6 @@
     <t>Start the software in test mode by grounding test pin 0 and pressing the reset button on the Arduino</t>
   </si>
   <si>
-    <t>Confirm test mode LED is on</t>
-  </si>
-  <si>
     <t>GSE presses the ignition button</t>
   </si>
   <si>
@@ -686,12 +660,6 @@
     <t>Alexandra</t>
   </si>
   <si>
-    <t>Verify that the ignition button and key not activated  </t>
-  </si>
-  <si>
-    <t>Verify that the ignition button and key activated. </t>
-  </si>
-  <si>
     <t>EL</t>
   </si>
   <si>
@@ -701,17 +669,294 @@
     <t>EL 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the heating blanket button is activated </t>
-  </si>
-  <si>
-    <t>Verify that the heating blanket button is not activated. </t>
+    <t>Check that the umbilical is connected at the test bench</t>
+  </si>
+  <si>
+    <t>Confirm that there is no smoke. </t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>GS confirms heating blanket button is not pressed. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 measures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>voltage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> between 24V and HEATING </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 confirms 24V </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>voltage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t>GS confirms heating blanket button is pressed. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 confirms &lt;50mV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>voltage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t>GS confirms ignition button and key are not pressed. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 measures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> between IGN_GND and PGND </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 confirms no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 measures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>voltage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> between 24V and IGNISENSE </t>
+    </r>
+  </si>
+  <si>
+    <t>GS confirms ignition button and key are pressed. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EL 1 confirms </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+  </si>
+  <si>
+    <t>EL 1 confirm readiness to listen for the valve actuation. </t>
+  </si>
+  <si>
+    <t>GS press manual valve button. </t>
+  </si>
+  <si>
+    <t>EL 1 confirm the valve opens. </t>
+  </si>
+  <si>
+    <t>GS release the manual valve button. </t>
+  </si>
+  <si>
+    <t>EL 1 confirm the valve closes. </t>
+  </si>
+  <si>
+    <t>Verify the oxidizer valve can be activated from the control box. </t>
+  </si>
+  <si>
+    <t>Primary Igniter relays when GS presses button. </t>
+  </si>
+  <si>
+    <t>Secondary igniter relay after ~1 second. </t>
+  </si>
+  <si>
+    <t>Oxidizer valve opens after ~2 seconds. </t>
+  </si>
+  <si>
+    <t>Secondary igniter relay after ~3 seconds. </t>
+  </si>
+  <si>
+    <t>Oxidizer valve after N seconds (depends on the wanted burn length, 6-10 seconds). </t>
+  </si>
+  <si>
+    <t>Primary Igniter relays after GS releases button. </t>
+  </si>
+  <si>
+    <t>Order:</t>
+  </si>
+  <si>
+    <t>Full sequence test</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Confirm that the Green LED is on</t>
+  </si>
+  <si>
+    <t>Confirm test mode Green LED is on</t>
+  </si>
+  <si>
+    <t>Confirm Red LED is on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm with GSE that they heard the reset buzzer </t>
+  </si>
+  <si>
+    <t>Purging</t>
+  </si>
+  <si>
+    <t>Confirm that Oxidiser valve is closed</t>
+  </si>
+  <si>
+    <t>Confirm preassure sensor value is below TBD and stable</t>
+  </si>
+  <si>
+    <t>Move to test site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anouncement: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check bottle gauge </t>
+  </si>
+  <si>
+    <t>Close N2O bottle</t>
+  </si>
+  <si>
+    <t>Return to Operation Center</t>
+  </si>
+  <si>
+    <t>Venting</t>
+  </si>
+  <si>
+    <t>Confirm that the pressure is 0</t>
+  </si>
+  <si>
+    <t>Wait for TBD</t>
+  </si>
+  <si>
+    <t>Confirm that the bottle gauge is 0</t>
+  </si>
+  <si>
+    <t>Confirm safety</t>
+  </si>
+  <si>
+    <t>T+</t>
+  </si>
+  <si>
+    <t>Check data</t>
+  </si>
+  <si>
+    <t>Turn of the camera</t>
+  </si>
+  <si>
+    <t>End countdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -863,6 +1108,29 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1285,7 +1553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1317,9 +1585,6 @@
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1328,24 +1593,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2058,7 +2338,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>206636</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2185,13 +2465,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>221</xdr:row>
+          <xdr:row>222</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>30480</xdr:colOff>
-          <xdr:row>222</xdr:row>
+          <xdr:row>223</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2259,7 +2539,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2393,7 +2673,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2594,7 +2874,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2862,7 +3142,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2996,7 +3276,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3063,7 +3343,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3264,7 +3544,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3331,7 +3611,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3599,7 +3879,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>205741</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3733,7 +4013,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4001,7 +4281,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>205741</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4194,15 +4474,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>85164</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>710005</xdr:rowOff>
+          <xdr:rowOff>708660</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>329004</xdr:colOff>
+          <xdr:colOff>327660</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>13896</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4469,8 +4749,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>206637</xdr:rowOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4536,7 +4816,7 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>79</xdr:row>
+          <xdr:row>80</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4671,7 +4951,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>83</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4738,7 +5018,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>84</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4805,7 +5085,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>85</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4871,8 +5151,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>86</xdr:row>
-          <xdr:rowOff>206636</xdr:rowOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4938,7 +5218,7 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>87</xdr:row>
+          <xdr:row>88</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5072,8 +5352,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>90</xdr:row>
-          <xdr:rowOff>206637</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5139,7 +5419,7 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>91</xdr:row>
+          <xdr:row>92</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5206,8 +5486,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>206636</xdr:rowOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5273,8 +5553,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:row>94</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5341,7 +5621,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>206637</xdr:rowOff>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5402,13 +5682,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>98</xdr:row>
-          <xdr:rowOff>355898</xdr:rowOff>
+          <xdr:rowOff>358140</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>99</xdr:row>
-          <xdr:rowOff>219634</xdr:rowOff>
+          <xdr:row>100</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5467,15 +5747,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>67235</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>96</xdr:row>
-          <xdr:rowOff>346934</xdr:rowOff>
+          <xdr:rowOff>350520</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>311075</xdr:colOff>
-          <xdr:row>98</xdr:row>
-          <xdr:rowOff>18378</xdr:rowOff>
+          <xdr:colOff>312420</xdr:colOff>
+          <xdr:row>100</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5535,13 +5815,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>100</xdr:row>
+          <xdr:row>101</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5602,14 +5882,14 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>101</xdr:row>
+          <xdr:row>102</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>102</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5669,13 +5949,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>102</xdr:row>
+          <xdr:row>103</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5736,14 +6016,14 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>104</xdr:row>
+          <xdr:row>105</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>106</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5803,14 +6083,14 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>105</xdr:row>
+          <xdr:row>106</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5870,14 +6150,14 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>106</xdr:row>
+          <xdr:row>107</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:row>109</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5937,13 +6217,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>108</xdr:row>
+          <xdr:row>109</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>110</xdr:row>
+          <xdr:row>111</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6004,13 +6284,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>109</xdr:row>
+          <xdr:row>110</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6071,14 +6351,14 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>111</xdr:row>
+          <xdr:row>112</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>112</xdr:row>
-          <xdr:rowOff>206636</xdr:rowOff>
+          <xdr:row>113</xdr:row>
+          <xdr:rowOff>205740</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6138,13 +6418,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>112</xdr:row>
+          <xdr:row>113</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6205,13 +6485,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>113</xdr:row>
+          <xdr:row>114</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>115</xdr:row>
+          <xdr:row>116</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6270,26 +6550,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>215153</xdr:colOff>
-          <xdr:row>114</xdr:row>
-          <xdr:rowOff>145229</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>117</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>458993</xdr:colOff>
-          <xdr:row>116</xdr:row>
-          <xdr:rowOff>449</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>320040</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1092"/>
+                  <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6338,25 +6618,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>116</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>118</xdr:row>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>119</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:colOff>335280</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1093"/>
+                  <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6405,25 +6685,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>89647</xdr:colOff>
-          <xdr:row>117</xdr:row>
-          <xdr:rowOff>127298</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>120</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>333487</xdr:colOff>
-          <xdr:row>119</xdr:row>
-          <xdr:rowOff>166294</xdr:rowOff>
+          <xdr:colOff>320040</xdr:colOff>
+          <xdr:row>122</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1094"/>
+                  <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6473,24 +6753,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>119</xdr:row>
+          <xdr:row>121</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>123</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1095"/>
+                  <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6540,24 +6820,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>120</xdr:row>
+          <xdr:row>122</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>122</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:row>124</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1096"/>
+                  <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6607,24 +6887,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>121</xdr:row>
+          <xdr:row>123</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>123</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:row>125</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1097"/>
+                  <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6674,24 +6954,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>122</xdr:row>
+          <xdr:row>129</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>124</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:row>131</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1098"/>
+                  <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6741,24 +7021,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>128</xdr:row>
+          <xdr:row>130</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>130</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:row>132</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1099"/>
+                  <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6808,24 +7088,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>129</xdr:row>
+          <xdr:row>131</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>131</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:row>133</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1100"/>
+                  <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6875,24 +7155,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>130</xdr:row>
+          <xdr:row>132</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>132</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1101"/>
+                  <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6942,24 +7222,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>131</xdr:row>
+          <xdr:row>134</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1102"/>
+                  <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7009,24 +7289,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>133</xdr:row>
+          <xdr:row>135</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>135</xdr:row>
-          <xdr:rowOff>22859</xdr:rowOff>
+          <xdr:row>137</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1103"/>
+                  <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7076,24 +7356,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>134</xdr:row>
+          <xdr:row>136</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>136</xdr:row>
-          <xdr:rowOff>22861</xdr:rowOff>
+          <xdr:row>138</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1104"/>
+                  <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7143,24 +7423,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>135</xdr:row>
+          <xdr:row>218</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>137</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:row>220</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1105"/>
+                  <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7210,24 +7490,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>217</xdr:row>
+          <xdr:row>219</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>218</xdr:row>
-          <xdr:rowOff>205739</xdr:rowOff>
+          <xdr:row>220</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1106"/>
+                  <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7277,24 +7557,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>218</xdr:row>
+          <xdr:row>220</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>219</xdr:row>
+          <xdr:row>221</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1107"/>
+                  <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7344,24 +7624,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>219</xdr:row>
+          <xdr:row>221</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>220</xdr:row>
-          <xdr:rowOff>15241</xdr:rowOff>
+          <xdr:row>223</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1108"/>
+                  <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7411,24 +7691,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>220</xdr:row>
+          <xdr:row>138</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>222</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1109"/>
+                  <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7478,24 +7758,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>137</xdr:row>
+          <xdr:row>139</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>139</xdr:row>
-          <xdr:rowOff>30481</xdr:rowOff>
+          <xdr:row>141</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1110"/>
+                  <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7545,24 +7825,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>138</xdr:row>
+          <xdr:row>140</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>140</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1111"/>
+                  <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7612,24 +7892,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>139</xdr:row>
+          <xdr:row>142</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>144</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1112"/>
+                  <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7679,24 +7959,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>141</xdr:row>
+          <xdr:row>143</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>143</xdr:row>
+          <xdr:row>145</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1113"/>
+                  <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7746,24 +8026,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>142</xdr:row>
+          <xdr:row>149</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>144</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1114"/>
+                  <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7813,24 +8093,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>148</xdr:row>
+          <xdr:row>150</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>150</xdr:row>
-          <xdr:rowOff>30479</xdr:rowOff>
+          <xdr:row>152</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1115"/>
+                  <a14:compatExt spid="_x0000_s1116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7880,24 +8160,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>149</xdr:row>
+          <xdr:row>151</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>153</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1116"/>
+                  <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7947,24 +8227,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>150</xdr:row>
+          <xdr:row>152</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1117"/>
+                  <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8014,24 +8294,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>151</xdr:row>
+          <xdr:row>153</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>153</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1118"/>
+                  <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8081,24 +8361,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>152</xdr:row>
+          <xdr:row>154</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>154</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1119"/>
+                  <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8148,24 +8428,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>153</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>155</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1120"/>
+                  <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8215,24 +8495,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>156</xdr:row>
+          <xdr:row>158</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1121"/>
+                  <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8282,24 +8562,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>159</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+            <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1122"/>
+                  <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8349,24 +8629,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>158</xdr:row>
+          <xdr:row>160</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
+            <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1123"/>
+                  <a14:compatExt spid="_x0000_s1124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8416,24 +8696,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>159</xdr:row>
+          <xdr:row>161</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
+            <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1124"/>
+                  <a14:compatExt spid="_x0000_s1125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8483,24 +8763,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>160</xdr:row>
+          <xdr:row>162</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
+            <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1125"/>
+                  <a14:compatExt spid="_x0000_s1126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8550,24 +8830,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>161</xdr:row>
+          <xdr:row>163</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
+            <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1126"/>
+                  <a14:compatExt spid="_x0000_s1127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8617,24 +8897,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>162</xdr:row>
+          <xdr:row>164</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>166</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
+            <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1127"/>
+                  <a14:compatExt spid="_x0000_s1128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8684,24 +8964,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>163</xdr:row>
+          <xdr:row>165</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>167</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
+            <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1128"/>
+                  <a14:compatExt spid="_x0000_s1129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8751,24 +9031,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>164</xdr:row>
+          <xdr:row>166</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>166</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
+            <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1129"/>
+                  <a14:compatExt spid="_x0000_s1130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8818,24 +9098,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>165</xdr:row>
+          <xdr:row>167</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>167</xdr:row>
+          <xdr:row>169</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
+            <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1130"/>
+                  <a14:compatExt spid="_x0000_s1131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8885,24 +9165,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>166</xdr:row>
+          <xdr:row>168</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>168</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
+            <xdr:cNvPr id="1132" name="Check Box 108" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1131"/>
+                  <a14:compatExt spid="_x0000_s1132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8952,24 +9232,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>167</xdr:row>
+          <xdr:row>170</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>169</xdr:row>
-          <xdr:rowOff>30479</xdr:rowOff>
+          <xdr:row>172</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1132" name="Check Box 108" hidden="1">
+            <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1132"/>
+                  <a14:compatExt spid="_x0000_s1133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9019,24 +9299,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>169</xdr:row>
+          <xdr:row>171</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>171</xdr:row>
-          <xdr:rowOff>30481</xdr:rowOff>
+          <xdr:row>173</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
+            <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1133"/>
+                  <a14:compatExt spid="_x0000_s1134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9086,24 +9366,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>170</xdr:row>
+          <xdr:row>173</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>175</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
+            <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1134"/>
+                  <a14:compatExt spid="_x0000_s1135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9153,24 +9433,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>172</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
+            <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1135"/>
+                  <a14:compatExt spid="_x0000_s1136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9220,24 +9500,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>30481</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
+            <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1136"/>
+                  <a14:compatExt spid="_x0000_s1137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9287,24 +9567,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
+            <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1137"/>
+                  <a14:compatExt spid="_x0000_s1138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9354,24 +9634,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>30479</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
+            <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1138"/>
+                  <a14:compatExt spid="_x0000_s1139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9421,24 +9701,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
+            <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1139"/>
+                  <a14:compatExt spid="_x0000_s1140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9488,24 +9768,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
+            <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1140"/>
+                  <a14:compatExt spid="_x0000_s1141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9555,24 +9835,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
+            <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1141"/>
+                  <a14:compatExt spid="_x0000_s1142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9622,24 +9902,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
+            <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1142"/>
+                  <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9689,24 +9969,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
+            <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1143"/>
+                  <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9756,24 +10036,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
+            <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1144"/>
+                  <a14:compatExt spid="_x0000_s1145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9823,24 +10103,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
+            <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1145"/>
+                  <a14:compatExt spid="_x0000_s1146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9890,24 +10170,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
+            <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1146"/>
+                  <a14:compatExt spid="_x0000_s1147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9957,24 +10237,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>27</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>29</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
+            <xdr:cNvPr id="1148" name="Check Box 124" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1147"/>
+                  <a14:compatExt spid="_x0000_s1148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10024,24 +10304,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>28</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>29</xdr:row>
+          <xdr:row>30</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1148" name="Check Box 124" hidden="1">
+            <xdr:cNvPr id="1149" name="Check Box 125" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1148"/>
+                  <a14:compatExt spid="_x0000_s1149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10091,24 +10371,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>28</xdr:row>
+          <xdr:row>155</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>30</xdr:row>
+          <xdr:row>157</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1149" name="Check Box 125" hidden="1">
+            <xdr:cNvPr id="1150" name="Check Box 126" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1149"/>
+                  <a14:compatExt spid="_x0000_s1150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10158,24 +10438,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>154</xdr:row>
+          <xdr:row>156</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>156</xdr:row>
-          <xdr:rowOff>30481</xdr:rowOff>
+          <xdr:row>158</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1150" name="Check Box 126" hidden="1">
+            <xdr:cNvPr id="1151" name="Check Box 127" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1150"/>
+                  <a14:compatExt spid="_x0000_s1151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10225,24 +10505,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>155</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>157</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1151" name="Check Box 127" hidden="1">
+            <xdr:cNvPr id="1152" name="Check Box 128" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1151"/>
+                  <a14:compatExt spid="_x0000_s1152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10288,23 +10568,28 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>75</xdr:row>
           <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="243840" cy="230393"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>320040</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1152" name="Check Box 128" hidden="1">
+            <xdr:cNvPr id="1153" name="Check Box 129" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1152"/>
+                  <a14:compatExt spid="_x0000_s1153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC9E909-15CA-4362-9CD3-3FD188714C77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10344,69 +10629,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>75</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
-        </xdr:from>
-        <xdr:ext cx="243840" cy="222773"/>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1153" name="Check Box 129" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1153"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA9BD6F-36CD-4BB5-84C5-55C5D2EBA916}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -11555,6 +11778,82 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>30480</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>281940</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000030C0000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11854,10 +12153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11865,6 +12164,7 @@
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
     <col min="3" max="3" width="57.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -11880,7 +12180,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -11917,10 +12217,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -11940,10 +12240,10 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -11965,7 +12265,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -11976,13 +12276,13 @@
         <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -11990,45 +12290,45 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
@@ -12036,46 +12336,46 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
@@ -12188,7 +12488,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -12204,7 +12504,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
@@ -12212,7 +12512,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
@@ -12220,10 +12520,10 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
@@ -12250,13 +12550,13 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" t="s">
         <v>157</v>
-      </c>
-      <c r="E56" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -12267,7 +12567,7 @@
         <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -12289,7 +12589,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
@@ -12300,7 +12600,7 @@
         <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
@@ -12402,28 +12702,28 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
@@ -12431,16 +12731,16 @@
       </c>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>22</v>
       </c>
@@ -12448,7 +12748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>9</v>
       </c>
@@ -12456,7 +12756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>9</v>
       </c>
@@ -12464,228 +12764,237 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C94" s="1"/>
       <c r="E94" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H100" s="28"/>
+    </row>
+    <row r="101" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G103" s="32"/>
+      <c r="H103" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>177</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C116" s="2"/>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
@@ -12693,126 +13002,123 @@
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C120" s="2"/>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E121" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
       <c r="C122" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E122" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="E123" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E124" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E128" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C129" s="2"/>
+      <c r="B129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E129" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C130" s="2"/>
+      <c r="E130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
         <v>22</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>9</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E131" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -12820,10 +13126,10 @@
         <v>9</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E132" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -12831,38 +13137,38 @@
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E133" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C134" s="2"/>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E134" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C135" s="2"/>
+      <c r="E135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
         <v>22</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -12870,283 +13176,400 @@
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E137" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C138" s="2"/>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>80</v>
-      </c>
-      <c r="B139" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>76</v>
+      </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C148" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>7</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C149" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>7</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>7</v>
       </c>
-      <c r="C157" s="3"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>7</v>
       </c>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>7</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>5</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C166" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>77</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>96</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="B175" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B171" t="s">
-        <v>81</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>100</v>
-      </c>
-      <c r="B174" t="s">
-        <v>81</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
         <v>16</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>76</v>
+      <c r="C178" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>252</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C188" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="35" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="220" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>16</v>
+      </c>
       <c r="C220" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C221" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C222" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -13165,13 +13588,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>396240</xdr:colOff>
-                    <xdr:row>221</xdr:row>
+                    <xdr:row>222</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>30480</xdr:colOff>
-                    <xdr:row>222</xdr:row>
+                    <xdr:row>223</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
                 </anchor>
@@ -13875,8 +14298,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>78</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13897,7 +14320,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>79</xdr:row>
+                    <xdr:row>80</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14007,8 +14430,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>86</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:row>87</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14029,7 +14452,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>87</xdr:row>
+                    <xdr:row>88</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14073,8 +14496,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>90</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:row>91</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14095,7 +14518,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>91</xdr:row>
+                    <xdr:row>92</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14117,8 +14540,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>92</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14139,7 +14562,7 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>93</xdr:row>
+                    <xdr:row>94</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14184,7 +14607,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
                     <xdr:row>100</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14205,8 +14628,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>312420</xdr:colOff>
-                    <xdr:row>99</xdr:row>
-                    <xdr:rowOff>198120</xdr:rowOff>
+                    <xdr:row>100</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14221,13 +14644,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>100</xdr:row>
+                    <xdr:row>101</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14243,14 +14666,14 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>101</xdr:row>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>102</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:row>103</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14265,13 +14688,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>102</xdr:row>
+                    <xdr:row>103</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14287,13 +14710,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>104</xdr:row>
+                    <xdr:row>105</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14309,13 +14732,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>105</xdr:row>
+                    <xdr:row>106</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>107</xdr:row>
+                    <xdr:row>108</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14331,13 +14754,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>106</xdr:row>
+                    <xdr:row>107</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14353,13 +14776,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>108</xdr:row>
+                    <xdr:row>109</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>110</xdr:row>
+                    <xdr:row>111</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14375,13 +14798,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>109</xdr:row>
+                    <xdr:row>110</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14397,13 +14820,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>111</xdr:row>
+                    <xdr:row>112</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14419,13 +14842,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>112</xdr:row>
+                    <xdr:row>113</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14441,13 +14864,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>113</xdr:row>
+                    <xdr:row>114</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>115</xdr:row>
+                    <xdr:row>116</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14457,41 +14880,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1092" r:id="rId63" name="Check Box 68">
+            <control shapeId="1093" r:id="rId63" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
-                    <xdr:row>114</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>116</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1093" r:id="rId64" name="Check Box 69">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>116</xdr:row>
+                    <xdr:row>117</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14501,19 +14902,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1094" r:id="rId65" name="Check Box 70">
+            <control shapeId="1094" r:id="rId64" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>91440</xdr:colOff>
-                    <xdr:row>117</xdr:row>
+                    <xdr:row>118</xdr:row>
                     <xdr:rowOff>129540</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>335280</xdr:colOff>
-                    <xdr:row>119</xdr:row>
+                    <xdr:row>120</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14523,29 +14924,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1095" r:id="rId66" name="Check Box 71">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>119</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>121</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1096" r:id="rId67" name="Check Box 72">
+            <control shapeId="1095" r:id="rId65" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14567,7 +14946,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1097" r:id="rId68" name="Check Box 73">
+            <control shapeId="1096" r:id="rId66" name="Check Box 72">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14589,7 +14968,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1098" r:id="rId69" name="Check Box 74">
+            <control shapeId="1097" r:id="rId67" name="Check Box 73">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14611,19 +14990,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1099" r:id="rId70" name="Check Box 75">
+            <control shapeId="1098" r:id="rId68" name="Check Box 74">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>128</xdr:row>
+                    <xdr:row>123</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>130</xdr:row>
+                    <xdr:row>125</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14633,7 +15012,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1100" r:id="rId71" name="Check Box 76">
+            <control shapeId="1099" r:id="rId69" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14655,7 +15034,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1101" r:id="rId72" name="Check Box 77">
+            <control shapeId="1100" r:id="rId70" name="Check Box 76">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14677,7 +15056,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1102" r:id="rId73" name="Check Box 78">
+            <control shapeId="1101" r:id="rId71" name="Check Box 77">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14699,19 +15078,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1103" r:id="rId74" name="Check Box 79">
+            <control shapeId="1102" r:id="rId72" name="Check Box 78">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>133</xdr:row>
+                    <xdr:row>132</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>135</xdr:row>
+                    <xdr:row>134</xdr:row>
                     <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14721,7 +15100,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1104" r:id="rId75" name="Check Box 80">
+            <control shapeId="1103" r:id="rId73" name="Check Box 79">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14743,7 +15122,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1105" r:id="rId76" name="Check Box 81">
+            <control shapeId="1104" r:id="rId74" name="Check Box 80">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14765,20 +15144,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1110" r:id="rId77" name="Check Box 86">
+            <control shapeId="1105" r:id="rId75" name="Check Box 81">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>137</xdr:row>
+                    <xdr:row>136</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>139</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:row>138</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14787,7 +15166,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1111" r:id="rId78" name="Check Box 87">
+            <control shapeId="1110" r:id="rId76" name="Check Box 86">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14809,7 +15188,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1112" r:id="rId79" name="Check Box 88">
+            <control shapeId="1111" r:id="rId77" name="Check Box 87">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14831,19 +15210,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1113" r:id="rId80" name="Check Box 89">
+            <control shapeId="1112" r:id="rId78" name="Check Box 88">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>141</xdr:row>
+                    <xdr:row>140</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>143</xdr:row>
+                    <xdr:row>142</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14853,7 +15232,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1114" r:id="rId81" name="Check Box 90">
+            <control shapeId="1113" r:id="rId79" name="Check Box 89">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14875,19 +15254,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1115" r:id="rId82" name="Check Box 91">
+            <control shapeId="1114" r:id="rId80" name="Check Box 90">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>148</xdr:row>
+                    <xdr:row>143</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>150</xdr:row>
+                    <xdr:row>145</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
@@ -14897,7 +15276,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1116" r:id="rId83" name="Check Box 92">
+            <control shapeId="1115" r:id="rId81" name="Check Box 91">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14919,7 +15298,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1117" r:id="rId84" name="Check Box 93">
+            <control shapeId="1116" r:id="rId82" name="Check Box 92">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14941,7 +15320,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1118" r:id="rId85" name="Check Box 94">
+            <control shapeId="1117" r:id="rId83" name="Check Box 93">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14963,7 +15342,711 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1121" r:id="rId86" name="Check Box 97">
+            <control shapeId="1118" r:id="rId84" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>152</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>154</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId85" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>157</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>159</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId86" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>158</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>160</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1123" r:id="rId87" name="Check Box 99">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>159</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>161</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1124" r:id="rId88" name="Check Box 100">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>160</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>162</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1125" r:id="rId89" name="Check Box 101">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>161</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>163</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1126" r:id="rId90" name="Check Box 102">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>162</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>164</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1127" r:id="rId91" name="Check Box 103">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>163</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>165</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1128" r:id="rId92" name="Check Box 104">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>164</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>166</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1129" r:id="rId93" name="Check Box 105">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>165</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>167</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1130" r:id="rId94" name="Check Box 106">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>166</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>168</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1131" r:id="rId95" name="Check Box 107">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>167</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>169</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1132" r:id="rId96" name="Check Box 108">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>168</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>170</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1133" r:id="rId97" name="Check Box 109">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>170</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>172</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1134" r:id="rId98" name="Check Box 110">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>171</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>173</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1135" r:id="rId99" name="Check Box 111">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>173</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>175</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId100" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1136" r:id="rId101" name="Check Box 112">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1137" r:id="rId102" name="Check Box 113">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1138" r:id="rId103" name="Check Box 114">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1139" r:id="rId104" name="Check Box 115">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1142" r:id="rId105" name="Check Box 118">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1143" r:id="rId106" name="Check Box 119">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1144" r:id="rId107" name="Check Box 120">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1145" r:id="rId108" name="Check Box 121">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1146" r:id="rId109" name="Check Box 122">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1147" r:id="rId110" name="Check Box 123">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1148" r:id="rId111" name="Check Box 124">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1149" r:id="rId112" name="Check Box 125">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId113" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>153</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>155</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId114" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>154</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>156</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1150" r:id="rId115" name="Check Box 126">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>155</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>157</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1151" r:id="rId116" name="Check Box 127">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -14985,701 +16068,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1122" r:id="rId87" name="Check Box 98">
+            <control shapeId="1106" r:id="rId117" name="Check Box 82">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>157</xdr:row>
+                    <xdr:row>218</xdr:row>
                     <xdr:rowOff>167640</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>159</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1123" r:id="rId88" name="Check Box 99">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>158</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>160</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1124" r:id="rId89" name="Check Box 100">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>159</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>161</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1125" r:id="rId90" name="Check Box 101">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>160</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>162</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1126" r:id="rId91" name="Check Box 102">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>161</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>163</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1127" r:id="rId92" name="Check Box 103">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>162</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>164</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1128" r:id="rId93" name="Check Box 104">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>163</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>165</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1129" r:id="rId94" name="Check Box 105">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>164</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>166</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1130" r:id="rId95" name="Check Box 106">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>165</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>167</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1131" r:id="rId96" name="Check Box 107">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>166</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>168</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1132" r:id="rId97" name="Check Box 108">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>167</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>169</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1133" r:id="rId98" name="Check Box 109">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>169</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>171</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1134" r:id="rId99" name="Check Box 110">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>170</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>172</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1135" r:id="rId100" name="Check Box 111">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>172</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>174</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId101" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1136" r:id="rId102" name="Check Box 112">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1137" r:id="rId103" name="Check Box 113">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1138" r:id="rId104" name="Check Box 114">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1139" r:id="rId105" name="Check Box 115">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1142" r:id="rId106" name="Check Box 118">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1143" r:id="rId107" name="Check Box 119">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1144" r:id="rId108" name="Check Box 120">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1145" r:id="rId109" name="Check Box 121">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1146" r:id="rId110" name="Check Box 122">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1147" r:id="rId111" name="Check Box 123">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1148" r:id="rId112" name="Check Box 124">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1149" r:id="rId113" name="Check Box 125">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>30</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1119" r:id="rId114" name="Check Box 95">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>152</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>154</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1120" r:id="rId115" name="Check Box 96">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>153</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>155</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1150" r:id="rId116" name="Check Box 126">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>154</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>156</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1151" r:id="rId117" name="Check Box 127">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>155</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>157</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1106" r:id="rId118" name="Check Box 82">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>217</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>219</xdr:row>
+                    <xdr:row>220</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15689,29 +16090,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1107" r:id="rId119" name="Check Box 83">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>218</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>219</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1108" r:id="rId120" name="Check Box 84">
+            <control shapeId="1107" r:id="rId118" name="Check Box 83">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15733,7 +16112,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1109" r:id="rId121" name="Check Box 85">
+            <control shapeId="1108" r:id="rId119" name="Check Box 84">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15745,7 +16124,29 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>320040</xdr:colOff>
-                    <xdr:row>222</xdr:row>
+                    <xdr:row>221</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId120" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>221</xdr:row>
+                    <xdr:rowOff>167640</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:row>223</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
@@ -15755,7 +16156,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId122" name="Check Box 1">
+            <control shapeId="1025" r:id="rId121" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15777,7 +16178,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId123" name="Check Box 2">
+            <control shapeId="1026" r:id="rId122" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15799,7 +16200,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1140" r:id="rId124" name="Check Box 116">
+            <control shapeId="1140" r:id="rId123" name="Check Box 116">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15821,7 +16222,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1141" r:id="rId125" name="Check Box 117">
+            <control shapeId="1141" r:id="rId124" name="Check Box 117">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15843,7 +16244,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1152" r:id="rId126" name="Check Box 128">
+            <control shapeId="1152" r:id="rId125" name="Check Box 128">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15865,7 +16266,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId127" name="Check Box 38">
+            <control shapeId="1062" r:id="rId126" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15887,7 +16288,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId128" name="Check Box 39">
+            <control shapeId="1063" r:id="rId127" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15909,7 +16310,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1153" r:id="rId129" name="Check Box 129">
+            <control shapeId="1153" r:id="rId128" name="Check Box 129">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -15960,22 +16361,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -15984,7 +16385,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -15996,7 +16397,7 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -16010,7 +16411,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -16021,10 +16422,10 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -16035,10 +16436,10 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -16049,10 +16450,10 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -16066,7 +16467,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -16077,18 +16478,18 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -16103,7 +16504,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -16115,7 +16516,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -16127,7 +16528,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -16139,7 +16540,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -16150,7 +16551,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -16163,7 +16564,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -16176,7 +16577,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -16184,7 +16585,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -16198,7 +16599,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -16597,7 +16998,7 @@
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16607,10 +17008,10 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -16618,13 +17019,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -16632,73 +17033,76 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -16707,11 +17111,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A227F7-73A5-48FB-8BA8-6FE3DE29DA5B}">
-  <dimension ref="A4:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A227F7-73A5-48FB-8BA8-6FE3DE29DA5B}">
+  <dimension ref="A4:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16720,440 +17124,632 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>205</v>
+      <c r="C4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>111</v>
+      <c r="D6" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="20"/>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>130</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>131</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>156</v>
+        <v>204</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>133</v>
+        <v>204</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>134</v>
+        <v>204</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>135</v>
+        <v>204</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D24" s="25"/>
-    </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>25</v>
+        <v>204</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-    </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="29" t="s">
+    <row r="32" spans="3:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D32" s="18" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="18" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="2"/>
-    </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D36" s="18" t="s">
+    <row r="37" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="18" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D38" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="39" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D39" s="18" t="s">
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>207</v>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>187</v>
+      <c r="D45" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>186</v>
+        <v>5</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>215</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>188</v>
+        <v>205</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>189</v>
+        <v>204</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>186</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>190</v>
+        <v>204</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="3:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
+      <c r="C51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>212</v>
+      <c r="D53" s="25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>215</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>71</v>
+        <v>5</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>213</v>
+        <v>204</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>215</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>71</v>
+        <v>182</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>72</v>
+        <v>204</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>73</v>
+        <v>204</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>75</v>
+        <v>204</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="18" t="s">
-        <v>112</v>
+      <c r="D66" s="29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>204</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D92" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="29" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>68580</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>30480</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>281940</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -17167,4 +17763,18 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EB917C-8484-4DF8-A5FA-675B4F617B65}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mainProcedure.xlsx
+++ b/mainProcedure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandragustafsson/Documents/TCRYA-civ.ing/RAVEN - som inte finns på teams/RavenProcedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AE729-4514-9447-BB00-2F9075FBA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602A94F-0402-674F-A505-2AB8EE7B4120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20833,7 +20833,7 @@
   <dimension ref="A2:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="358" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/mainProcedure.xlsx
+++ b/mainProcedure.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandragustafsson/Documents/TCRYA-civ.ing/RAVEN - som inte finns på teams/RavenProcedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602A94F-0402-674F-A505-2AB8EE7B4120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639619B-CF93-F74C-BD68-CB709C058C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="35840" windowHeight="21860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainProcedure" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="260">
   <si>
     <t>Version</t>
   </si>
@@ -963,12 +963,15 @@
   <si>
     <t xml:space="preserve">The checking have to be done sequentially to ensure the systems works in the correct way and all steps are correctly followed. </t>
   </si>
+  <si>
+    <t>Select/Deselect All</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,11 +1144,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1571,7 +1569,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1633,13 +1631,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1658,6 +1649,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1811,6 +1812,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike/>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
@@ -1880,16 +1891,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2099,15 +2100,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2328,6 +2329,10 @@
 
 <file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$76" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12152,9 +12157,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>390769</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>12153</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12164,7 +12169,7 @@
                   <a14:compatExt spid="_x0000_s3308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3060744-8F8F-BA8A-0678-943F58B08E0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EC0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12221,7 +12226,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12231,7 +12236,7 @@
                   <a14:compatExt spid="_x0000_s3309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA45A59-1714-7500-D382-A1C0538E7E9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000ED0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12288,7 +12293,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12298,7 +12303,7 @@
                   <a14:compatExt spid="_x0000_s3311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B08AA5-8D76-6471-88E0-2EF8B279DC6F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EF0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12355,7 +12360,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12365,7 +12370,7 @@
                   <a14:compatExt spid="_x0000_s3312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF0C766-B343-AA13-F321-283DA91D9E79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F00C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12422,7 +12427,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12432,7 +12437,7 @@
                   <a14:compatExt spid="_x0000_s3313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DF4D94-E03A-3844-B1FF-2853591E2299}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F10C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12489,7 +12494,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12499,7 +12504,7 @@
                   <a14:compatExt spid="_x0000_s3314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910C51FB-52DF-94AC-5BE7-0798420661B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F20C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12556,7 +12561,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12566,7 +12571,7 @@
                   <a14:compatExt spid="_x0000_s3315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D262E2-43BD-0344-2EE2-2F63996136C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F30C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12633,7 +12638,7 @@
                   <a14:compatExt spid="_x0000_s3316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85C76D0-7334-2A65-A0BA-E85A7EB4F9D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F40C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12690,7 +12695,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12700,7 +12705,7 @@
                   <a14:compatExt spid="_x0000_s3321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006A3F0F-5F1C-7404-28B4-373F0801C12C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F90C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12757,7 +12762,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12767,7 +12772,7 @@
                   <a14:compatExt spid="_x0000_s3322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAFAC66-A303-B8B6-A60F-97203B37F0E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FA0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12824,7 +12829,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12834,7 +12839,7 @@
                   <a14:compatExt spid="_x0000_s3323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103FECE6-B6DD-3F50-A04C-CAEE9A37F7C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FB0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12891,7 +12896,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12901,7 +12906,7 @@
                   <a14:compatExt spid="_x0000_s3324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58F52B8-A7EB-2886-83A8-72548035F5AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FC0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12958,7 +12963,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>12699</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -12968,7 +12973,7 @@
                   <a14:compatExt spid="_x0000_s3325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28BBFDA-B58C-4D88-DB85-4735664ED57F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FD0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13025,7 +13030,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>12701</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13035,7 +13040,7 @@
                   <a14:compatExt spid="_x0000_s3326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A096B925-E9C4-526A-CAAA-A88D3E960603}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13102,7 +13107,7 @@
                   <a14:compatExt spid="_x0000_s3327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FFECEA-950A-9794-60A2-DE52065A6D6D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13158,8 +13163,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>200526</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13169,7 +13174,7 @@
                   <a14:compatExt spid="_x0000_s3328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF1B086-DBEE-2763-DF50-EF92D7E737BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000000D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13226,7 +13231,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13236,7 +13241,7 @@
                   <a14:compatExt spid="_x0000_s3329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B315D2-DC11-33E5-75FE-E781D21443B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000010D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13303,7 +13308,7 @@
                   <a14:compatExt spid="_x0000_s3330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35862770-7002-16A5-F583-B334664FB055}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000020D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13360,7 +13365,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13370,7 +13375,7 @@
                   <a14:compatExt spid="_x0000_s3331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A09B4FA-AF9E-C5FC-5449-B4E19BFFD4C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000030D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13437,7 +13442,7 @@
                   <a14:compatExt spid="_x0000_s3332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6E1A3B-B9A6-FF38-31D3-32F7E59189B1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000040D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13504,7 +13509,7 @@
                   <a14:compatExt spid="_x0000_s3333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAE5E17B-41E9-523D-F7C7-9189A55D045D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000050D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13561,7 +13566,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13571,7 +13576,7 @@
                   <a14:compatExt spid="_x0000_s3334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F1E993-5B2C-8A2D-451D-09761CF2BDF3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000060D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13638,7 +13643,7 @@
                   <a14:compatExt spid="_x0000_s3335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216357F9-32A6-1C64-5643-6B5FD93C5528}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000070D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13705,7 +13710,7 @@
                   <a14:compatExt spid="_x0000_s3336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C9CA8A-7884-DFA2-31EC-2EF3AACEFFBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000080D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13772,7 +13777,7 @@
                   <a14:compatExt spid="_x0000_s3337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24B7B9C-07DD-1893-FC4E-DFB41650FA3F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000090D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13839,7 +13844,7 @@
                   <a14:compatExt spid="_x0000_s3338"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB315DC-48D4-E7D9-EADD-7CAF0A0B9DE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13895,8 +13900,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>200526</xdr:rowOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13906,7 +13911,7 @@
                   <a14:compatExt spid="_x0000_s3339"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F852120C-A3CC-1673-FC02-63E189AE2658}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13963,7 +13968,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -13973,7 +13978,7 @@
                   <a14:compatExt spid="_x0000_s3340"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF14C636-2EB7-3AEE-97D5-CA6B693A6A68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14040,7 +14045,7 @@
                   <a14:compatExt spid="_x0000_s3342"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736EB423-375F-E0BC-82DD-CAC461B2923F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14096,8 +14101,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>200526</xdr:rowOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14107,7 +14112,7 @@
                   <a14:compatExt spid="_x0000_s3343"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D4623D-6ECA-6401-D960-E74C9DE0C000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14164,7 +14169,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14174,7 +14179,7 @@
                   <a14:compatExt spid="_x0000_s3344"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391A691-ECF4-7A86-50D9-9A4197C28547}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000100D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14241,7 +14246,7 @@
                   <a14:compatExt spid="_x0000_s3345"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5B5449-48E0-534E-4AFE-062F9992ADB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000110D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14308,7 +14313,7 @@
                   <a14:compatExt spid="_x0000_s3346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4BECC3-FB89-199A-25B2-6060632E85F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000120D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14364,8 +14369,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>200526</xdr:rowOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14375,7 +14380,7 @@
                   <a14:compatExt spid="_x0000_s3347"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0C456B-DFC6-F349-13C1-F44937622E8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000130D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14432,7 +14437,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14442,7 +14447,7 @@
                   <a14:compatExt spid="_x0000_s3348"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEC7E02-54EF-EDCB-5AED-351709135ABC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000140D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14509,7 +14514,7 @@
                   <a14:compatExt spid="_x0000_s3349"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8462B498-78A8-77EB-D391-7D778826B136}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000150D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14565,8 +14570,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>200526</xdr:rowOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14576,7 +14581,7 @@
                   <a14:compatExt spid="_x0000_s3351"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF4CA1B-249C-B0C9-E34A-DF1577A5E55A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000170D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14633,7 +14638,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14643,7 +14648,7 @@
                   <a14:compatExt spid="_x0000_s3352"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451C049E-4599-E7F5-63D6-95097F83926D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000180D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14710,7 +14715,7 @@
                   <a14:compatExt spid="_x0000_s3353"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56B7CCD-1285-C3C6-BB76-C91E278AEED4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000190D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14766,8 +14771,8 @@
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>200526</xdr:rowOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14777,7 +14782,7 @@
                   <a14:compatExt spid="_x0000_s3354"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C356A095-D899-DF3A-CE0F-3DDBCA5183A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14834,7 +14839,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14844,7 +14849,7 @@
                   <a14:compatExt spid="_x0000_s3355"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA85DFE-129F-2E78-2F3E-45ABD19F6E9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14911,7 +14916,7 @@
                   <a14:compatExt spid="_x0000_s3356"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0977F5-7530-2DA0-7EEC-B198ED5740F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14957,14 +14962,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200527"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3357" name="Check Box 285" hidden="1">
@@ -14973,7 +14983,7 @@
                   <a14:compatExt spid="_x0000_s3357"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D457E8EB-0ED3-8844-91BF-2387F96F8111}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15013,20 +15023,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>64</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200526"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3358" name="Check Box 286" hidden="1">
@@ -15035,7 +15050,7 @@
                   <a14:compatExt spid="_x0000_s3358"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC9FA92-293D-A04C-83E4-DF45D6933EC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15075,20 +15090,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>65</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200526"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3359" name="Check Box 287" hidden="1">
@@ -15097,7 +15117,7 @@
                   <a14:compatExt spid="_x0000_s3359"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA1EC24-38EA-CF40-B822-05D85CD2FE34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F0D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15137,20 +15157,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>66</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200527"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3360" name="Check Box 288" hidden="1">
@@ -15159,7 +15184,7 @@
                   <a14:compatExt spid="_x0000_s3360"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93250C02-FB57-A04B-8B13-F710C72BF1FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000200D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15199,20 +15224,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200526"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3361" name="Check Box 289" hidden="1">
@@ -15221,7 +15251,7 @@
                   <a14:compatExt spid="_x0000_s3361"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107D6131-F52C-BE40-BA8F-6AF69ED6E561}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000210D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15261,7 +15291,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -15278,7 +15308,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15288,7 +15318,7 @@
                   <a14:compatExt spid="_x0000_s3362"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A954F5-675F-FDFC-76F0-E8C8E38E12C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000220D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15334,14 +15364,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200527"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3363" name="Check Box 291" hidden="1">
@@ -15350,7 +15385,7 @@
                   <a14:compatExt spid="_x0000_s3363"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED36E739-F1E0-184C-9185-00C6FE1F513B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000230D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15390,20 +15425,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200526"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3364" name="Check Box 292" hidden="1">
@@ -15412,7 +15452,7 @@
                   <a14:compatExt spid="_x0000_s3364"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03441DF3-DDA4-7844-B533-AD85537DA315}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000240D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15452,20 +15492,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200526"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3365" name="Check Box 293" hidden="1">
@@ -15474,7 +15519,7 @@
                   <a14:compatExt spid="_x0000_s3365"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0184DB-6F03-AA47-B5C9-FA01CEF333EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000250D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15514,20 +15559,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200527"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>75</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3366" name="Check Box 294" hidden="1">
@@ -15536,7 +15586,7 @@
                   <a14:compatExt spid="_x0000_s3366"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8C01A4-D30E-174E-A245-BCF2AB9FA0C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000260D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15576,20 +15626,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="393700" cy="200526"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>76</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3367" name="Check Box 295" hidden="1">
@@ -15598,7 +15653,7 @@
                   <a14:compatExt spid="_x0000_s3367"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B610A7-DE60-0E40-83D9-CAE60A22E38D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000270D0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15638,7 +15693,74 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3369" name="Check Box 297" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3369"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9B9283-2E33-ED97-7A8C-5C6B961EA8E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -15942,6 +16064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Blad1"/>
   <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
@@ -20057,6 +20180,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Blad2"/>
   <dimension ref="A4:H22"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
@@ -20713,6 +20837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D8C981-CB5D-4B8E-AE76-2A5C315E2101}">
+  <sheetPr codeName="Blad3"/>
   <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -20830,10 +20955,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A227F7-73A5-48FB-8BA8-6FE3DE29DA5B}">
+  <sheetPr codeName="Blad4"/>
   <dimension ref="A2:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="358" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20846,8 +20972,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -20887,12 +21022,12 @@
       <c r="C7" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="34"/>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -20902,11 +21037,11 @@
       <c r="C8" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>121</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -20916,11 +21051,11 @@
       <c r="C9" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="35" t="s">
         <v>122</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -20930,7 +21065,7 @@
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>148</v>
       </c>
       <c r="F10" t="b">
@@ -20944,7 +21079,7 @@
       <c r="C11" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="35" t="s">
         <v>205</v>
       </c>
       <c r="F11" t="b">
@@ -20958,7 +21093,7 @@
       <c r="C12" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="35" t="s">
         <v>123</v>
       </c>
       <c r="F12" t="b">
@@ -20972,7 +21107,7 @@
       <c r="C13" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>124</v>
       </c>
       <c r="F13" t="b">
@@ -20984,7 +21119,7 @@
       <c r="C14" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="35" t="s">
         <v>206</v>
       </c>
       <c r="F14" t="b">
@@ -21007,7 +21142,7 @@
       <c r="C17" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="32" t="s">
         <v>127</v>
       </c>
       <c r="F17" t="b">
@@ -21018,7 +21153,7 @@
       <c r="C18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="32" t="s">
         <v>152</v>
       </c>
       <c r="F18" t="b">
@@ -21029,7 +21164,7 @@
       <c r="C19" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="33" t="s">
         <v>129</v>
       </c>
       <c r="F19" t="b">
@@ -21040,7 +21175,7 @@
       <c r="C20" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="33" t="s">
         <v>130</v>
       </c>
       <c r="F20" t="b">
@@ -21051,7 +21186,7 @@
       <c r="C21" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="32" t="s">
         <v>128</v>
       </c>
       <c r="F21" t="b">
@@ -21062,7 +21197,7 @@
       <c r="C22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="32" t="s">
         <v>131</v>
       </c>
       <c r="F22" t="b">
@@ -21087,7 +21222,7 @@
       <c r="C26" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="31" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="b">
@@ -21098,7 +21233,7 @@
       <c r="C27" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F27" t="b">
@@ -21109,7 +21244,7 @@
       <c r="C28" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="b">
@@ -21131,7 +21266,7 @@
       <c r="C31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="36" t="s">
         <v>28</v>
       </c>
       <c r="F31" t="b">
@@ -21142,7 +21277,7 @@
       <c r="C32" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="31" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="b">
@@ -21153,7 +21288,7 @@
       <c r="C33" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="31" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="b">
@@ -21175,7 +21310,7 @@
       <c r="C36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F36" t="b">
@@ -21186,7 +21321,7 @@
       <c r="C37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="31" t="s">
         <v>33</v>
       </c>
       <c r="F37" t="b">
@@ -21197,7 +21332,7 @@
       <c r="C38" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="31" t="s">
         <v>158</v>
       </c>
       <c r="F38" t="b">
@@ -21208,7 +21343,7 @@
       <c r="C39" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="31" t="s">
         <v>34</v>
       </c>
       <c r="F39" t="b">
@@ -21219,7 +21354,7 @@
       <c r="C40" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="31" t="s">
         <v>98</v>
       </c>
       <c r="F40" t="b">
@@ -21238,7 +21373,7 @@
       <c r="C43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F43" t="b">
@@ -21249,7 +21384,7 @@
       <c r="C44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="31" t="s">
         <v>177</v>
       </c>
       <c r="F44" t="b">
@@ -21260,7 +21395,7 @@
       <c r="C45" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="31" t="s">
         <v>176</v>
       </c>
       <c r="F45" t="b">
@@ -21271,7 +21406,7 @@
       <c r="C46" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="31" t="s">
         <v>178</v>
       </c>
       <c r="F46" t="b">
@@ -21282,7 +21417,7 @@
       <c r="C47" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="31" t="s">
         <v>179</v>
       </c>
       <c r="F47" t="b">
@@ -21293,7 +21428,7 @@
       <c r="C48" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="31" t="s">
         <v>176</v>
       </c>
       <c r="F48" t="b">
@@ -21304,7 +21439,7 @@
       <c r="C49" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="31" t="s">
         <v>180</v>
       </c>
       <c r="F49" t="b">
@@ -21326,7 +21461,7 @@
       <c r="C52" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="37" t="s">
         <v>213</v>
       </c>
       <c r="F52" t="b">
@@ -21337,7 +21472,7 @@
       <c r="C53" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="37" t="s">
         <v>214</v>
       </c>
       <c r="F53" t="b">
@@ -21348,7 +21483,7 @@
       <c r="C54" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="37" t="s">
         <v>215</v>
       </c>
       <c r="F54" t="b">
@@ -21359,7 +21494,7 @@
       <c r="C55" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="37" t="s">
         <v>216</v>
       </c>
       <c r="F55" t="b">
@@ -21370,7 +21505,7 @@
       <c r="C56" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="37" t="s">
         <v>210</v>
       </c>
       <c r="F56" t="b">
@@ -21381,7 +21516,7 @@
       <c r="C57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="37" t="s">
         <v>217</v>
       </c>
       <c r="F57" t="b">
@@ -21392,7 +21527,7 @@
       <c r="C58" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="37" t="s">
         <v>214</v>
       </c>
       <c r="F58" t="b">
@@ -21403,7 +21538,7 @@
       <c r="C59" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D59" s="40" t="s">
+      <c r="D59" s="37" t="s">
         <v>218</v>
       </c>
       <c r="F59" t="b">
@@ -21414,7 +21549,7 @@
       <c r="C60" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="40" t="s">
+      <c r="D60" s="37" t="s">
         <v>216</v>
       </c>
       <c r="F60" t="b">
@@ -21425,7 +21560,7 @@
       <c r="C61" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="37" t="s">
         <v>212</v>
       </c>
       <c r="F61" t="b">
@@ -21444,7 +21579,7 @@
       <c r="C64" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="37" t="s">
         <v>208</v>
       </c>
       <c r="F64" t="b">
@@ -21455,7 +21590,7 @@
       <c r="C65" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="37" t="s">
         <v>209</v>
       </c>
       <c r="F65" t="b">
@@ -21466,7 +21601,7 @@
       <c r="C66" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="37" t="s">
         <v>210</v>
       </c>
       <c r="F66" t="b">
@@ -21477,7 +21612,7 @@
       <c r="C67" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="37" t="s">
         <v>211</v>
       </c>
       <c r="F67" t="b">
@@ -21488,7 +21623,7 @@
       <c r="C68" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="37" t="s">
         <v>209</v>
       </c>
       <c r="F68" t="b">
@@ -21499,7 +21634,7 @@
       <c r="C69" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="37" t="s">
         <v>212</v>
       </c>
       <c r="F69" t="b">
@@ -21516,7 +21651,7 @@
       <c r="C72" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="37" t="s">
         <v>219</v>
       </c>
       <c r="F72" t="b">
@@ -21527,7 +21662,7 @@
       <c r="C73" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="37" t="s">
         <v>220</v>
       </c>
       <c r="F73" t="b">
@@ -21538,7 +21673,7 @@
       <c r="C74" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="37" t="s">
         <v>221</v>
       </c>
       <c r="F74" t="b">
@@ -21549,7 +21684,7 @@
       <c r="C75" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F75" t="b">
@@ -21560,7 +21695,7 @@
       <c r="C76" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="37" t="s">
         <v>223</v>
       </c>
       <c r="F76" t="b">
@@ -21572,23 +21707,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C79" s="31"/>
-    </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="D80" s="33"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" s="31"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="D82" s="33"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="85" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D85" s="30" t="s">
@@ -21632,35 +21761,35 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="D7:D14">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22">
+      <formula>$F7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
       <formula>AND($F7=FALSE,$F6&lt;&gt;FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>$F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$F17</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>AND($F17=FALSE,$F16&lt;&gt;FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>$F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$F26</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>AND($F26=FALSE,$F25&lt;&gt;FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$F26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$F31</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>AND($F31=FALSE,$F30&lt;&gt;FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
@@ -22876,6 +23005,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3369" r:id="rId57" name="Check Box 297">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!AllCheckBoxes">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
@@ -22884,6 +23035,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5439C230-43A8-4EDF-B554-2E24F8DC7117}">
+  <sheetPr codeName="Blad5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22898,6 +23050,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EB917C-8484-4DF8-A5FA-675B4F617B65}">
+  <sheetPr codeName="Blad6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/mainProcedure.xlsx
+++ b/mainProcedure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ltuse-my.sharepoint.com/personal/lukjun-9_student_ltu_se/Documents/RavenProcedure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandragustafsson/Documents/TCRYA-civ.ing/RAVEN - som inte finns på teams/RavenProcedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{7639619B-CF93-F74C-BD68-CB709C058C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8C68966-993A-49FB-8776-6CDB9FC9863F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3E587-7FD1-1044-A319-EAB1726BEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainProcedure" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="253">
   <si>
     <t>Version</t>
   </si>
@@ -1547,7 +1547,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1629,24 +1629,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1654,8 +1636,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1702,7 +1690,91 @@
     <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -1990,19 +2062,111 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$80" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$81" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$82" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$83" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$84" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$85" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$88" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$89" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$90" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$91" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$92" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$93" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$94" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$95" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$96" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$97" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$100" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$101" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$102" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$103" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$106" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$107" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$108" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2386,13 +2550,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>82296</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>120396</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2453,13 +2617,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>144780</xdr:rowOff>
+          <xdr:rowOff>139700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2520,13 +2684,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2587,13 +2751,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2654,13 +2818,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2721,13 +2885,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2792,9 +2956,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2859,9 +3023,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2926,9 +3090,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2993,9 +3157,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3060,9 +3224,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3127,9 +3291,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3190,13 +3354,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3257,11 +3421,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>358140</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -3322,15 +3486,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>358140</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3391,13 +3555,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3458,13 +3622,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>16764</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3525,13 +3689,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3592,13 +3756,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3659,13 +3823,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3726,13 +3890,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3793,13 +3957,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3860,13 +4024,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3927,13 +4091,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3998,7 +4162,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4061,13 +4225,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4128,13 +4292,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4195,13 +4359,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4262,13 +4426,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>64</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4329,13 +4493,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>65</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4396,13 +4560,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>66</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4463,13 +4627,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4530,13 +4694,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>70</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4601,7 +4765,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4668,7 +4832,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4731,13 +4895,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4802,7 +4966,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4865,13 +5029,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>73</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4936,7 +5100,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -4999,13 +5163,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>76</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5066,13 +5230,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>75</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5133,13 +5297,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>77</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>79</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5200,13 +5364,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>78</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5267,13 +5431,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>80</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>82</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5334,13 +5498,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>69</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>71</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5401,13 +5565,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5473,13 +5637,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5540,13 +5704,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5607,13 +5771,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5674,13 +5838,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5741,13 +5905,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5808,13 +5972,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5875,13 +6039,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5942,13 +6106,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>396240</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6009,13 +6173,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6076,13 +6240,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6143,13 +6307,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6210,13 +6374,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6277,13 +6441,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6344,13 +6508,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6411,13 +6575,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6478,13 +6642,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6545,13 +6709,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>358140</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6621,9 +6785,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6655,14 +6819,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6688,9 +6852,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6722,14 +6886,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6755,9 +6919,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6789,14 +6953,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6822,9 +6986,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6856,14 +7020,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6889,9 +7053,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6923,14 +7087,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -6956,9 +7120,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6990,14 +7154,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7023,9 +7187,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7057,14 +7221,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7090,9 +7254,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7124,14 +7288,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7157,9 +7321,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7191,14 +7355,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7224,9 +7388,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7258,14 +7422,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7291,9 +7455,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7325,14 +7489,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7358,9 +7522,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7392,14 +7556,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7425,9 +7589,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7459,14 +7623,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7492,9 +7656,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7526,14 +7690,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7559,9 +7723,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>200526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7593,14 +7757,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7626,9 +7790,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7660,14 +7824,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7693,9 +7857,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7727,14 +7891,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7760,9 +7924,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7794,14 +7958,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7827,9 +7991,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7861,14 +8025,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7894,9 +8058,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>200526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7928,14 +8092,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -7961,9 +8125,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7995,14 +8159,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8028,7 +8192,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8062,14 +8226,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8095,9 +8259,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8129,14 +8293,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8162,9 +8326,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>205740</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8196,14 +8360,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8229,9 +8393,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>200526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8263,14 +8427,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8296,9 +8460,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>200526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8330,14 +8494,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8363,9 +8527,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>44</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8397,14 +8561,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8430,7 +8594,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8464,14 +8628,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8497,9 +8661,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>200526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8531,14 +8695,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8564,7 +8728,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8598,14 +8762,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8631,7 +8795,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8665,14 +8829,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8698,9 +8862,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8732,14 +8896,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8765,9 +8929,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>200526</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8799,14 +8963,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8832,9 +8996,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8866,14 +9030,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8899,9 +9063,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>54</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8933,14 +9097,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -8966,9 +9130,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>55</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9000,14 +9164,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9033,7 +9197,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9067,14 +9231,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9100,7 +9264,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9134,14 +9298,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9167,7 +9331,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9201,14 +9365,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9234,9 +9398,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>58</xdr:row>
-          <xdr:rowOff>183338</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9268,14 +9432,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9301,9 +9465,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>60</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9335,14 +9499,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9368,9 +9532,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>61</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9402,14 +9566,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9435,9 +9599,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>63</xdr:row>
-          <xdr:rowOff>183338</xdr:rowOff>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9469,14 +9633,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9502,9 +9666,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>65</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9536,14 +9700,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9569,9 +9733,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>202543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9603,14 +9767,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9636,7 +9800,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>67</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9670,14 +9834,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9703,7 +9867,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9737,14 +9901,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9770,7 +9934,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>69</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9804,14 +9968,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9837,7 +10001,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9871,14 +10035,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9904,7 +10068,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>73</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9938,14 +10102,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -9971,9 +10135,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>74</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10005,14 +10169,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -10038,9 +10202,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>75</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>203011</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10072,14 +10236,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -10105,7 +10269,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>76</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10139,14 +10303,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -10172,9 +10336,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10206,14 +10370,1555 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>79</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3370" name="Check Box 298" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3370"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E69BE0C-AA89-CAA5-EA7A-24B536A46C72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3371" name="Check Box 299" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3371"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09434F23-10B5-5AEF-2FED-636070683144}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3372" name="Check Box 300" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3372"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67B6EA3-4CEC-4EA8-7AAB-6546C429DDAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3373" name="Check Box 301" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3373"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4665FDC2-2805-D6C7-A114-C86BBED2B1FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3374" name="Check Box 302" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3374"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7996D62-A202-0F0B-2A8A-74C0D2609A3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3375" name="Check Box 303" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3375"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827B33D6-1706-7704-5162-496961B493DA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>86</xdr:row>
+          <xdr:rowOff>194733</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>87</xdr:row>
+          <xdr:rowOff>194733</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3376" name="Check Box 304" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3376"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFED09F-1175-ADDC-E951-1CE74B30F044}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3377" name="Check Box 305" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3377"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5561F84B-5908-CAB1-6F48-D7E5A844869E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3378" name="Check Box 306" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3378"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4A10EC-9118-4EAC-F829-ACCD144A2ED8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>90</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3379" name="Check Box 307" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3379"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00ED5C41-3978-342A-8E66-DF2474328644}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3380" name="Check Box 308" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3380"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC8EE1F-1114-57FD-C3D3-509633C90D54}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3381" name="Check Box 309" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3381"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2CB9EF-7A57-DDE8-9E5A-F36D3433BD9C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3382" name="Check Box 310" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3382"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27527BC1-A25D-B51C-93E4-1FDB0783CC72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>94</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>94</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3383" name="Check Box 311" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3383"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C28B888-92BE-BF4E-4401-DBD59BA9DC4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3384" name="Check Box 312" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3384"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04F81D0-CF1D-95F8-404A-10991596AB49}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3385" name="Check Box 313" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3385"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4A492C-CA80-910F-64E4-6004B72271A7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>99</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>99</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3386" name="Check Box 314" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3386"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5B7F74-2EBC-9ABC-7181-6F9CA3F733FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>100</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>100</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3387" name="Check Box 315" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3387"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{332A1858-4B33-77D8-A679-93F8446261B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3388" name="Check Box 316" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3388"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783CC759-940D-74C6-B125-197511AA04E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3389" name="Check Box 317" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3389"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE15ECA-C592-B743-73CD-4F9B22D31223}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>105</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3390" name="Check Box 318" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3390"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4BAB0FB-3943-4095-0F74-7C1F193948C2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>106</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3391" name="Check Box 319" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3391"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC12438A-FFE4-7882-29C6-1366C04D0B2A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3392" name="Check Box 320" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3392"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C1051A-F7B8-50CA-35C9-CFA7A79303AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -10244,9 +11949,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
+          <xdr:colOff>393700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10256,7 +11961,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460B384B-D2E8-455F-AE9F-F06F2B659F88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10278,14 +11983,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -10603,19 +12308,19 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="57.83203125" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="8" width="45.77734375" customWidth="1"/>
+    <col min="8" max="8" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10623,12 +12328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -10636,7 +12341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -10644,7 +12349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -10652,7 +12357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -10660,7 +12365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -10668,7 +12373,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -10691,15 +12396,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -10710,7 +12415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -10718,15 +12423,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="47" t="s">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C16" s="41" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -10734,7 +12439,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
@@ -10742,12 +12447,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -10755,10 +12460,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -10766,7 +12471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -10774,7 +12479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>9</v>
       </c>
@@ -10782,13 +12487,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -10799,7 +12504,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>129</v>
       </c>
@@ -10810,7 +12515,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>195</v>
       </c>
@@ -10818,7 +12523,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>129</v>
       </c>
@@ -10829,13 +12534,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>128</v>
       </c>
@@ -10846,7 +12551,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>129</v>
       </c>
@@ -10857,7 +12562,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -10869,7 +12574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>128</v>
       </c>
@@ -10877,7 +12582,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>129</v>
       </c>
@@ -10885,10 +12590,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>16</v>
       </c>
@@ -10896,7 +12601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>9</v>
       </c>
@@ -10904,7 +12609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>9</v>
       </c>
@@ -10912,10 +12617,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>16</v>
       </c>
@@ -10923,7 +12628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -10931,10 +12636,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>16</v>
       </c>
@@ -10942,7 +12647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>9</v>
       </c>
@@ -10950,10 +12655,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>49</v>
       </c>
@@ -10961,7 +12666,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -10969,7 +12674,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>9</v>
       </c>
@@ -10977,10 +12682,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C51" s="41"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -10988,7 +12693,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -10999,7 +12704,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -11007,7 +12712,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -11015,10 +12720,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -11029,7 +12734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>143</v>
       </c>
@@ -11037,7 +12742,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>7</v>
       </c>
@@ -11045,7 +12750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>56</v>
       </c>
@@ -11053,7 +12758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>3</v>
       </c>
@@ -11061,7 +12766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>7</v>
       </c>
@@ -11069,7 +12774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>7</v>
       </c>
@@ -11077,7 +12782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>7</v>
       </c>
@@ -11085,7 +12790,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>7</v>
       </c>
@@ -11093,7 +12798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>7</v>
       </c>
@@ -11101,7 +12806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>7</v>
       </c>
@@ -11109,7 +12814,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>7</v>
       </c>
@@ -11117,7 +12822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>7</v>
       </c>
@@ -11125,7 +12830,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -11133,7 +12838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>7</v>
       </c>
@@ -11141,7 +12846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>7</v>
       </c>
@@ -11149,7 +12854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>67</v>
       </c>
@@ -11157,7 +12862,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>7</v>
       </c>
@@ -11165,10 +12870,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>54</v>
       </c>
@@ -11176,17 +12881,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -11197,7 +12902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>16</v>
       </c>
@@ -11205,7 +12910,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>211</v>
       </c>
@@ -11213,107 +12918,107 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C87" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C88" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C89" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C90" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C91" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C92" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C93" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C94" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C95" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C96" s="19" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="21" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="41"/>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="41"/>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="41"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="41"/>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11332,13 +13037,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11354,13 +13059,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11380,9 +13085,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11402,9 +13107,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11424,9 +13129,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11446,9 +13151,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11468,9 +13173,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11490,9 +13195,9 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>53340</xdr:rowOff>
+                    <xdr:rowOff>50800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11508,13 +13213,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11530,11 +13235,11 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>358140</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
@@ -11550,15 +13255,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>60960</xdr:colOff>
+                    <xdr:colOff>63500</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>358140</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11574,13 +13279,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11596,13 +13301,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11618,13 +13323,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11640,13 +13345,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11662,13 +13367,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11684,13 +13389,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11706,13 +13411,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11728,13 +13433,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11750,13 +13455,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11776,7 +13481,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11794,13 +13499,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11816,13 +13521,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11838,13 +13543,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11860,13 +13565,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>64</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11882,13 +13587,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>65</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11904,13 +13609,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>66</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11930,7 +13635,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11952,7 +13657,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -11970,13 +13675,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11996,7 +13701,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12014,13 +13719,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>73</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12040,7 +13745,7 @@
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -12058,13 +13763,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>74</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>76</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12080,13 +13785,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>75</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12102,13 +13807,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>77</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>79</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12124,13 +13829,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>78</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12146,13 +13851,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>80</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>82</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12168,13 +13873,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>101600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>144780</xdr:rowOff>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12190,13 +13895,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>67</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12212,13 +13917,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>68</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>70</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12234,13 +13939,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>69</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>71</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12256,13 +13961,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>127000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12278,13 +13983,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12300,13 +14005,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12322,13 +14027,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12350,15 +14055,15 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -12384,7 +14089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -12398,7 +14103,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
@@ -12410,7 +14115,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -12422,7 +14127,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -12436,7 +14141,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -12450,7 +14155,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -12464,7 +14169,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -12476,7 +14181,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -12488,7 +14193,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
@@ -12502,7 +14207,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -12514,7 +14219,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -12526,7 +14231,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -12538,7 +14243,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -12550,7 +14255,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -12562,7 +14267,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -12574,7 +14279,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -12586,7 +14291,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="13" t="s">
@@ -12598,7 +14303,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -12627,13 +14332,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12649,13 +14354,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12671,13 +14376,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12693,13 +14398,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12715,13 +14420,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12737,13 +14442,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12759,13 +14464,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12781,13 +14486,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>396240</xdr:rowOff>
+                    <xdr:rowOff>393700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12803,13 +14508,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12825,13 +14530,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12847,13 +14552,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12869,13 +14574,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12891,13 +14596,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12913,13 +14618,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12935,13 +14640,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12957,13 +14662,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>167640</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12979,13 +14684,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>358140</xdr:rowOff>
+                    <xdr:rowOff>355600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>320040</xdr:colOff>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>22860</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -13007,12 +14712,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>153</v>
       </c>
@@ -13020,7 +14725,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13034,7 +14739,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13045,7 +14750,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -13056,7 +14761,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -13070,7 +14775,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -13078,7 +14783,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>115</v>
       </c>
@@ -13086,7 +14791,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -13100,7 +14805,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -13119,27 +14824,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A227F7-73A5-48FB-8BA8-6FE3DE29DA5B}">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="A2:G122"/>
+  <dimension ref="A2:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="358" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="63.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G2" s="36" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" s="37" t="s">
         <v>219</v>
       </c>
@@ -13148,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>156</v>
       </c>
@@ -13162,7 +14868,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -13170,7 +14876,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
@@ -13178,7 +14884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -13193,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>2</v>
       </c>
@@ -13207,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>3</v>
       </c>
@@ -13221,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>4</v>
       </c>
@@ -13235,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>5</v>
       </c>
@@ -13249,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>6</v>
       </c>
@@ -13263,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>7</v>
       </c>
@@ -13277,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="C14" s="8" t="s">
         <v>163</v>
@@ -13289,11 +14995,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
@@ -13301,7 +15007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
         <v>163</v>
       </c>
@@ -13312,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="8" t="s">
         <v>163</v>
       </c>
@@ -13323,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="8" t="s">
         <v>163</v>
       </c>
@@ -13334,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="8" t="s">
         <v>163</v>
       </c>
@@ -13345,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="8" t="s">
         <v>163</v>
       </c>
@@ -13356,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="8" t="s">
         <v>163</v>
       </c>
@@ -13367,13 +15073,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="8"/>
       <c r="D24" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="8" t="s">
         <v>16</v>
       </c>
@@ -13381,7 +15087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="8" t="s">
         <v>163</v>
       </c>
@@ -13392,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="8" t="s">
         <v>163</v>
       </c>
@@ -13403,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="8" t="s">
         <v>163</v>
       </c>
@@ -13414,10 +15120,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="8" t="s">
         <v>16</v>
       </c>
@@ -13425,7 +15131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="8" t="s">
         <v>167</v>
       </c>
@@ -13436,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="8" t="s">
         <v>167</v>
       </c>
@@ -13447,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
         <v>167</v>
       </c>
@@ -13458,10 +15164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
@@ -13469,7 +15175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C36" s="8" t="s">
         <v>167</v>
       </c>
@@ -13480,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="8" t="s">
         <v>167</v>
       </c>
@@ -13491,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C38" s="8" t="s">
         <v>167</v>
       </c>
@@ -13502,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
         <v>167</v>
       </c>
@@ -13513,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
         <v>167</v>
       </c>
@@ -13524,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C42" s="8" t="s">
         <v>16</v>
       </c>
@@ -13532,7 +15238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C43" s="8" t="s">
         <v>5</v>
       </c>
@@ -13543,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
         <v>5</v>
       </c>
@@ -13554,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C45" s="8" t="s">
         <v>164</v>
       </c>
@@ -13565,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C46" s="8" t="s">
         <v>163</v>
       </c>
@@ -13576,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C47" s="8" t="s">
         <v>5</v>
       </c>
@@ -13587,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C48" s="8" t="s">
         <v>163</v>
       </c>
@@ -13598,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C49" s="8" t="s">
         <v>164</v>
       </c>
@@ -13609,10 +15315,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -13620,7 +15326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C52" s="8" t="s">
         <v>5</v>
       </c>
@@ -13631,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C53" s="8" t="s">
         <v>163</v>
       </c>
@@ -13642,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C54" s="8" t="s">
         <v>163</v>
       </c>
@@ -13653,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C55" s="8" t="s">
         <v>142</v>
       </c>
@@ -13664,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C56" s="8" t="s">
         <v>163</v>
       </c>
@@ -13675,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C57" s="8" t="s">
         <v>5</v>
       </c>
@@ -13686,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C58" s="8" t="s">
         <v>163</v>
       </c>
@@ -13697,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C59" s="8" t="s">
         <v>163</v>
       </c>
@@ -13708,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C60" s="8" t="s">
         <v>163</v>
       </c>
@@ -13719,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C61" s="8" t="s">
         <v>163</v>
       </c>
@@ -13730,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C63" s="8" t="s">
         <v>16</v>
       </c>
@@ -13738,7 +15444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C64" s="8" t="s">
         <v>5</v>
       </c>
@@ -13749,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C65" s="8" t="s">
         <v>163</v>
       </c>
@@ -13760,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C66" s="8" t="s">
         <v>163</v>
       </c>
@@ -13771,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C67" s="8" t="s">
         <v>5</v>
       </c>
@@ -13782,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C68" s="8" t="s">
         <v>163</v>
       </c>
@@ -13793,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C69" s="8" t="s">
         <v>163</v>
       </c>
@@ -13804,13 +15510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="8"/>
+    <row r="71" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C71" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D71" s="27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C72" s="8" t="s">
         <v>142</v>
       </c>
@@ -13821,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C73" s="8" t="s">
         <v>5</v>
       </c>
@@ -13832,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="8" t="s">
         <v>163</v>
       </c>
@@ -13843,7 +15551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C75" s="8" t="s">
         <v>5</v>
       </c>
@@ -13854,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="8" t="s">
         <v>163</v>
       </c>
@@ -13865,323 +15573,407 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C80" s="39" t="s">
+    <row r="79" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C80" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C81" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C82" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C83" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C84" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C85" s="8"/>
+      <c r="D85" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C87" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C88" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C89" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C90" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C91" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C92" s="8"/>
+      <c r="D92" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C93" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C94" s="8"/>
+      <c r="D94" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C95" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C96" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C97" s="8"/>
+      <c r="D97" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C99" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C100" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C101" s="8"/>
+      <c r="D101" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C102" s="8"/>
+      <c r="D102" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C103" s="8"/>
+      <c r="D103" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C105" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C106" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="C107" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C108" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D112" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D113" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D114" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D115" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D116" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D117" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D118" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="40"/>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="39" t="s">
+      <c r="E121" s="43"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="40"/>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D85" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D86" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D87" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D88" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D89" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D90" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D91" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D93" s="42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D95" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="G95" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
-        <v>229</v>
-      </c>
-      <c r="D96" s="43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="98" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D99" s="43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D101" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>231</v>
-      </c>
-      <c r="D102" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>229</v>
-      </c>
-      <c r="D103" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="G104" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="105" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
-        <v>229</v>
-      </c>
-      <c r="D105" s="43" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D106" s="43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="107" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
-        <v>229</v>
-      </c>
-      <c r="D107" s="43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D108" s="43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="109" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
-        <v>229</v>
-      </c>
-      <c r="D109" s="43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
-        <v>229</v>
-      </c>
-      <c r="D110" s="43" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D111" s="43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D113" s="44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
-        <v>229</v>
-      </c>
-      <c r="D114" s="43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D115" s="43" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D116" s="43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D117" s="43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D119" s="44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
-        <v>231</v>
-      </c>
-      <c r="D120" s="45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
-        <v>231</v>
-      </c>
-      <c r="D121" s="45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
-        <v>231</v>
-      </c>
-      <c r="D122" s="45" t="s">
-        <v>38</v>
-      </c>
+      <c r="E123" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D123:E123"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="D7:D14">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>AND($F7=FALSE,$F6&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>AND($F17=FALSE,$F16&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>AND($F26=FALSE,$F25&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$F26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>AND($F31=FALSE,$F30&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>AND($F36=FALSE,$F35&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$F36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D49">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>AND($F43=FALSE,$F42&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$F43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D61">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>AND($F52=FALSE,$F51&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$F52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND($F64=FALSE,$F63&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$F64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D76">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>AND($F72=FALSE,$F71&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$F72</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80:D85">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$F80</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+      <formula>AND($F80=FALSE,$F79&lt;&gt;FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88:D97">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$F88</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>AND($F88=FALSE,$F87&lt;&gt;FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100:D103">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$F100</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>AND($F100=FALSE,$F99&lt;&gt;FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106:D108">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$F106</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>AND($F106=FALSE,$F105&lt;&gt;FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14204,9 +15996,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14226,9 +16018,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14248,9 +16040,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14270,9 +16062,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14292,9 +16084,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14314,9 +16106,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14336,9 +16128,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14358,9 +16150,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14380,9 +16172,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14402,9 +16194,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14424,9 +16216,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14446,9 +16238,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14468,9 +16260,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14490,9 +16282,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14512,7 +16304,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14534,7 +16326,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14556,7 +16348,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14578,9 +16370,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14600,7 +16392,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14622,7 +16414,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14644,9 +16436,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14666,7 +16458,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14688,9 +16480,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14710,9 +16502,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -14732,7 +16524,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>40</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14754,7 +16546,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>43</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14776,7 +16568,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>44</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14798,7 +16590,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>45</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14820,7 +16612,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>46</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14842,7 +16634,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>47</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14864,7 +16656,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>48</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14886,7 +16678,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>49</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14908,7 +16700,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>52</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14930,7 +16722,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>53</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14952,7 +16744,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14974,7 +16766,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14996,7 +16788,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>56</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15018,7 +16810,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>57</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15040,7 +16832,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15062,7 +16854,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>59</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15084,7 +16876,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15106,7 +16898,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15128,7 +16920,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>64</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15150,7 +16942,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>65</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15172,7 +16964,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>66</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15194,7 +16986,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>67</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15216,7 +17008,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15238,7 +17030,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>69</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15260,7 +17052,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15282,7 +17074,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>73</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15304,7 +17096,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15326,7 +17118,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15348,7 +17140,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>76</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15370,9 +17162,515 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3370" r:id="rId58" name="Check Box 298">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>79</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3371" r:id="rId59" name="Check Box 299">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>80</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3372" r:id="rId60" name="Check Box 300">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3373" r:id="rId61" name="Check Box 301">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3374" r:id="rId62" name="Check Box 302">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>83</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3375" r:id="rId63" name="Check Box 303">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>84</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>84</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3376" r:id="rId64" name="Check Box 304">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>86</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>87</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3377" r:id="rId65" name="Check Box 305">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>88</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3378" r:id="rId66" name="Check Box 306">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>89</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>89</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3379" r:id="rId67" name="Check Box 307">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>90</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>90</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3380" r:id="rId68" name="Check Box 308">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>91</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>91</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3381" r:id="rId69" name="Check Box 309">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>92</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>92</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3382" r:id="rId70" name="Check Box 310">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>93</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3383" r:id="rId71" name="Check Box 311">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>94</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>94</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3384" r:id="rId72" name="Check Box 312">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>95</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3385" r:id="rId73" name="Check Box 313">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>96</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>96</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3386" r:id="rId74" name="Check Box 314">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>99</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>99</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3387" r:id="rId75" name="Check Box 315">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>100</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>100</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3388" r:id="rId76" name="Check Box 316">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>101</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>101</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3389" r:id="rId77" name="Check Box 317">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>102</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>102</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3390" r:id="rId78" name="Check Box 318">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>105</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>106</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3391" r:id="rId79" name="Check Box 319">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>106</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>106</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3392" r:id="rId80" name="Check Box 320">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>107</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>107</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15394,13 +17692,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D2" s="37" t="s">
         <v>219</v>
       </c>
@@ -15409,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>156</v>
       </c>
@@ -15423,7 +17721,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -15431,27 +17729,27 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="40" t="s">
         <v>147</v>
       </c>
     </row>
@@ -15475,9 +17773,9 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>396240</xdr:colOff>
+                    <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>15240</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/mainProcedure.xlsx
+++ b/mainProcedure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandragustafsson/Documents/TCRYA-civ.ing/RAVEN - som inte finns på teams/RavenProcedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3E587-7FD1-1044-A319-EAB1726BEE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB280F9C-2DD7-5042-8899-86CCA49FD63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainProcedure" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="259">
   <si>
     <t>Version</t>
   </si>
@@ -401,9 +401,6 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Engine setup</t>
-  </si>
-  <si>
     <t>Ganesh</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>Ivar</t>
   </si>
   <si>
-    <t>Someone</t>
-  </si>
-  <si>
     <t>Check that umbilical is connected to controlbox</t>
   </si>
   <si>
@@ -512,12 +506,6 @@
     <t>Heating of bottle</t>
   </si>
   <si>
-    <t>Person 1</t>
-  </si>
-  <si>
-    <t>Person 2</t>
-  </si>
-  <si>
     <t>Pre Procedures</t>
   </si>
   <si>
@@ -530,16 +518,10 @@
     <t>Action</t>
   </si>
   <si>
-    <t>MG</t>
-  </si>
-  <si>
     <t>Lukas</t>
   </si>
   <si>
     <t>Alexandra</t>
-  </si>
-  <si>
-    <t>EL</t>
   </si>
   <si>
     <t>EL1</t>
@@ -944,12 +926,48 @@
   <si>
     <t>Pre procedure?</t>
   </si>
+  <si>
+    <t>SUP</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES2</t>
+  </si>
+  <si>
+    <t>Electronics 1</t>
+  </si>
+  <si>
+    <t>Electronics 2</t>
+  </si>
+  <si>
+    <t>Engine setup 1</t>
+  </si>
+  <si>
+    <t>Engine setup 2</t>
+  </si>
+  <si>
+    <t>Electronics Team</t>
+  </si>
+  <si>
+    <t>Rocket Motor - RM</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,6 +1140,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1547,7 +1570,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1645,6 +1668,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1690,7 +1715,7 @@
     <cellStyle name="Utdata" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Varningstext" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1713,12 +1738,21 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1772,6 +1806,37 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1986,43 +2051,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$56" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$45" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$57" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$46" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$58" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$47" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$59" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$48" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$60" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$49" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$61" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$52" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$64" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$53" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$65" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$54" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$66" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$55" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$67" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$56" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2030,43 +2095,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$68" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$57" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$69" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$58" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$72" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$59" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$73" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$60" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$74" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$61" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$75" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$64" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$76" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$65" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$66" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$80" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$67" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$81" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$68" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2074,43 +2139,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$82" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$69" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$83" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$72" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$84" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$73" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$85" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$74" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$88" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$75" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$89" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$76" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$90" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp127.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$91" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$80" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp128.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$92" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$81" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp129.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$93" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$82" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2118,43 +2183,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$94" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$83" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp131.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$95" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$84" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp132.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$96" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$85" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp133.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$97" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$88" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp134.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$100" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$89" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp135.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$101" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$90" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp136.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$102" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$91" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp137.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$103" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$92" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp138.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$106" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$93" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp139.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$107" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$94" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2162,15 +2227,51 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp140.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$108" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$95" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$96" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp142.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$97" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp143.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$100" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp144.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$101" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp145.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$102" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp146.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$103" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp147.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$106" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp148.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$107" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp149.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$108" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp150.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2386,27 +2487,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2414,43 +2515,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2458,43 +2559,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$39" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$43" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2502,43 +2603,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$44" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$45" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$46" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$47" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$48" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$49" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$52" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$53" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$54" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$43" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$55" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$44" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6778,6 +6879,614 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>67733</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>186267</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>389467</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>16933</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE9C3F5-9146-85F1-23D4-3F2931B4D786}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6148" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6148"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8DEF3D-DE6E-0EE5-C3B7-39B29274EB57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6149" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AA5C29-E781-2013-60A3-7932EF4E0EEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6151" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C669B8-3CDC-0454-972F-51CB290B6361}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6152" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6152"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9ADFB2-E82F-C8F4-8046-8F587410E715}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6153" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6153"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64515218-61DA-9753-047D-2C307FBAB504}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6154" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6154"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A2336C-BFD9-9CB7-8A6F-79E755336DDC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6155" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6155"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F99242DA-5D92-5225-D6CB-F975558BB491}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>393700</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6156" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B825FBE2-1F91-9FE9-F421-6D9F80BDBDDD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
@@ -11936,7 +12645,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -12428,7 +13137,7 @@
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="41" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -12436,7 +13145,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -12444,12 +13153,12 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -12457,7 +13166,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -12501,65 +13210,65 @@
         <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H31" s="18"/>
     </row>
     <row r="32" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -12567,27 +13276,27 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -12644,7 +13353,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="16" x14ac:dyDescent="0.2">
@@ -12652,7 +13361,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -12663,7 +13372,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12671,7 +13380,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12679,7 +13388,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -12690,7 +13399,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12698,10 +13407,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E53" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12709,7 +13418,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12717,7 +13426,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -12736,10 +13445,10 @@
     </row>
     <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -12787,7 +13496,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -12819,7 +13528,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -12827,7 +13536,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -12859,7 +13568,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="16" x14ac:dyDescent="0.2">
@@ -12888,7 +13597,7 @@
     </row>
     <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -12907,20 +13616,20 @@
         <v>16</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C87" s="20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -12930,47 +13639,47 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C89" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C90" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C91" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C92" s="19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C93" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C94" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C95" s="19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C96" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
@@ -12980,32 +13689,32 @@
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.2">
@@ -14704,120 +15413,437 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D8C981-CB5D-4B8E-AE76-2A5C315E2101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D8C981-CB5D-4B8E-AE76-2A5C315E2101}">
   <sheetPr codeName="Blad3"/>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
+      <c r="D17" s="8"/>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:C3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$E5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:C11">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C17">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$E15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6146" r:id="rId3" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6148" r:id="rId4" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6149" r:id="rId5" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6151" r:id="rId6" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6152" r:id="rId7" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6153" r:id="rId8" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6154" r:id="rId9" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6155" r:id="rId10" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6156" r:id="rId11" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -14826,7 +15852,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A2:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -14842,12 +15868,12 @@
   <sheetData>
     <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="G2" s="36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" s="37" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" t="b">
@@ -14856,16 +15882,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -14873,7 +15899,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -14889,7 +15915,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>95</v>
@@ -14904,7 +15930,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>96</v>
@@ -14918,7 +15944,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>97</v>
@@ -14935,7 +15961,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -14946,10 +15972,10 @@
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -14960,7 +15986,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>98</v>
@@ -14974,7 +16000,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>99</v>
@@ -14986,10 +16012,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="C14" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -15009,7 +16035,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>101</v>
@@ -15020,10 +16046,10 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -15031,7 +16057,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>103</v>
@@ -15042,7 +16068,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>104</v>
@@ -15053,7 +16079,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>102</v>
@@ -15064,7 +16090,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>105</v>
@@ -15089,7 +16115,7 @@
     </row>
     <row r="26" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>23</v>
@@ -15100,7 +16126,7 @@
     </row>
     <row r="27" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>24</v>
@@ -15111,7 +16137,7 @@
     </row>
     <row r="28" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>25</v>
@@ -15133,7 +16159,7 @@
     </row>
     <row r="31" spans="3:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>27</v>
@@ -15144,7 +16170,7 @@
     </row>
     <row r="32" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>28</v>
@@ -15155,7 +16181,7 @@
     </row>
     <row r="33" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>29</v>
@@ -15177,7 +16203,7 @@
     </row>
     <row r="36" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C36" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>31</v>
@@ -15188,7 +16214,7 @@
     </row>
     <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>32</v>
@@ -15199,10 +16225,10 @@
     </row>
     <row r="38" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C38" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -15210,7 +16236,7 @@
     </row>
     <row r="39" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>33</v>
@@ -15221,7 +16247,7 @@
     </row>
     <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>73</v>
@@ -15235,7 +16261,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -15254,7 +16280,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -15262,10 +16288,10 @@
     </row>
     <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C45" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -15273,10 +16299,10 @@
     </row>
     <row r="46" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C46" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -15287,7 +16313,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -15295,10 +16321,10 @@
     </row>
     <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C48" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -15306,10 +16332,10 @@
     </row>
     <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C49" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -15331,7 +16357,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -15339,10 +16365,10 @@
     </row>
     <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C53" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -15350,10 +16376,10 @@
     </row>
     <row r="54" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C54" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -15361,10 +16387,10 @@
     </row>
     <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C55" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -15372,10 +16398,10 @@
     </row>
     <row r="56" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C56" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -15386,7 +16412,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -15394,10 +16420,10 @@
     </row>
     <row r="58" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C58" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -15405,10 +16431,10 @@
     </row>
     <row r="59" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C59" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -15416,10 +16442,10 @@
     </row>
     <row r="60" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C60" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -15427,10 +16453,10 @@
     </row>
     <row r="61" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C61" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -15449,7 +16475,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -15457,10 +16483,10 @@
     </row>
     <row r="65" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C65" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -15468,10 +16494,10 @@
     </row>
     <row r="66" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C66" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -15482,7 +16508,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -15490,10 +16516,10 @@
     </row>
     <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C68" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>169</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -15501,10 +16527,10 @@
     </row>
     <row r="69" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C69" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -15515,15 +16541,15 @@
         <v>16</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C72" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -15534,7 +16560,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -15542,10 +16568,10 @@
     </row>
     <row r="74" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C74" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -15556,7 +16582,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -15564,10 +16590,10 @@
     </row>
     <row r="76" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C76" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -15575,7 +16601,7 @@
     </row>
     <row r="78" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C78" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -15583,12 +16609,12 @@
         <v>16</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>36</v>
@@ -15599,24 +16625,24 @@
     </row>
     <row r="81" spans="3:7" ht="48" x14ac:dyDescent="0.2">
       <c r="C81" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="3:7" ht="48" x14ac:dyDescent="0.2">
       <c r="C82" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -15624,10 +16650,10 @@
     </row>
     <row r="83" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -15635,10 +16661,10 @@
     </row>
     <row r="84" spans="3:7" ht="48" x14ac:dyDescent="0.2">
       <c r="C84" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="35" t="s">
         <v>229</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>235</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -15647,7 +16673,7 @@
     <row r="85" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C85" s="8"/>
       <c r="D85" s="35" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -15663,7 +16689,7 @@
     </row>
     <row r="88" spans="3:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>36</v>
@@ -15674,10 +16700,10 @@
     </row>
     <row r="89" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C89" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -15685,66 +16711,66 @@
     </row>
     <row r="90" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C90" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C91" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C92" s="8"/>
       <c r="D92" s="35" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C93" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C94" s="8"/>
       <c r="D94" s="35" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="3:7" ht="48" x14ac:dyDescent="0.2">
       <c r="C95" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C96" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D96" s="35" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C97" s="8"/>
       <c r="D97" s="35" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -15757,28 +16783,28 @@
     </row>
     <row r="100" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C100" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C101" s="8"/>
       <c r="D101" s="35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C102" s="8"/>
       <c r="D102" s="35" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C103" s="8"/>
       <c r="D103" s="35" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="3:6" ht="16" x14ac:dyDescent="0.2">
@@ -15786,12 +16812,12 @@
         <v>16</v>
       </c>
       <c r="D105" s="44" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C106" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>36</v>
@@ -15802,7 +16828,7 @@
     </row>
     <row r="107" spans="3:6" ht="64" x14ac:dyDescent="0.2">
       <c r="C107" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D107" s="29" t="s">
         <v>37</v>
@@ -15813,7 +16839,7 @@
     </row>
     <row r="108" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C108" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D108" s="29" t="s">
         <v>38</v>
@@ -15821,48 +16847,48 @@
     </row>
     <row r="112" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D112" s="28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D113" s="25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D114" s="25" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D115" s="25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D116" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="4:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D117" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D118" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D121" s="42" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E121" s="43"/>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D123" s="42" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E123" s="43"/>
     </row>
@@ -15873,107 +16899,107 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="D7:D14">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="26" stopIfTrue="1">
       <formula>AND($F7=FALSE,$F6&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>$F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
       <formula>AND($F17=FALSE,$F16&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="26" priority="25">
       <formula>$F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
       <formula>AND($F26=FALSE,$F25&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>$F26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>AND($F31=FALSE,$F30&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
       <formula>AND($F36=FALSE,$F35&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$F36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D49">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
       <formula>AND($F43=FALSE,$F42&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$F43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D61">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>AND($F52=FALSE,$F51&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$F52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
       <formula>AND($F64=FALSE,$F63&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$F64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D76">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
       <formula>AND($F72=FALSE,$F71&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$F72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:D85">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>AND($F80=FALSE,$F79&lt;&gt;FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$F80</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>AND($F80=FALSE,$F79&lt;&gt;FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D97">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>AND($F88=FALSE,$F87&lt;&gt;FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$F88</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>AND($F88=FALSE,$F87&lt;&gt;FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:D103">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>AND($F100=FALSE,$F99&lt;&gt;FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$F100</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>AND($F100=FALSE,$F99&lt;&gt;FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:D108">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>AND($F106=FALSE,$F105&lt;&gt;FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$F106</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND($F106=FALSE,$F105&lt;&gt;FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17700,7 +18726,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D2" s="37" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" t="b">
@@ -17709,16 +18735,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -17726,7 +18752,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17734,7 +18760,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17742,7 +18768,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -17750,7 +18776,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/mainProcedure.xlsx
+++ b/mainProcedure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandragustafsson/Documents/TCRYA-civ.ing/RAVEN - som inte finns på teams/RavenProcedure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB280F9C-2DD7-5042-8899-86CCA49FD63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF787B4-CB4D-7F4A-8786-784D7A2B09C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainProcedure" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="262">
   <si>
     <t>Version</t>
   </si>
@@ -961,6 +961,15 @@
   </si>
   <si>
     <t>Roles</t>
+  </si>
+  <si>
+    <t>Pre-Procedures</t>
+  </si>
+  <si>
+    <t>Note attendance(could be good for safety)</t>
+  </si>
+  <si>
+    <t>Quick breifing for Phase Green</t>
   </si>
 </sst>
 </file>
@@ -1718,31 +1727,12 @@
   <dxfs count="30">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <strike/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2010,12 +2000,31 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13017,8 +13026,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13039,58 +13048,79 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -13105,18 +13135,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>17</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -15417,8 +15444,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15618,22 +15645,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:C3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$E3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C11">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C17">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$E15</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15852,7 +15879,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A2:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -16899,106 +16926,106 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="D7:D14">
-    <cfRule type="expression" dxfId="29" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>AND($F7=FALSE,$F6&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$F7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>AND($F17=FALSE,$F16&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$F17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>AND($F26=FALSE,$F25&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$F26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>AND($F31=FALSE,$F30&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$F31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>AND($F36=FALSE,$F35&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$F36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D49">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>AND($F43=FALSE,$F42&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$F43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D61">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>AND($F52=FALSE,$F51&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$F52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D69">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>AND($F64=FALSE,$F63&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$F64</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:D76">
-    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>AND($F72=FALSE,$F71&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$F72</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:D85">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>AND($F80=FALSE,$F79&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$F80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88:D97">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND($F88=FALSE,$F87&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$F88</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:D103">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND($F100=FALSE,$F99&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:D108">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>AND($F106=FALSE,$F105&lt;&gt;FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F106</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18715,13 +18742,13 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
